--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.424577333333334</v>
+      </c>
+      <c r="H2">
+        <v>4.273732000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.009249507402003717</v>
+      </c>
+      <c r="J2">
+        <v>0.009249507402003719</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.6849806666666666</v>
-      </c>
-      <c r="H2">
-        <v>2.054942</v>
-      </c>
-      <c r="I2">
-        <v>0.005384415753505336</v>
-      </c>
-      <c r="J2">
-        <v>0.005384415753505335</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N2">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P2">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q2">
-        <v>0.049764530414</v>
+        <v>0.2560981666497779</v>
       </c>
       <c r="R2">
-        <v>0.4478807737259999</v>
+        <v>2.304883499848001</v>
       </c>
       <c r="S2">
-        <v>0.0005400966595149639</v>
+        <v>0.001746307007859951</v>
       </c>
       <c r="T2">
-        <v>0.0005400966595149637</v>
+        <v>0.001746307007859951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6849806666666666</v>
+        <v>1.424577333333334</v>
       </c>
       <c r="H3">
-        <v>2.054942</v>
+        <v>4.273732000000001</v>
       </c>
       <c r="I3">
-        <v>0.005384415753505336</v>
+        <v>0.009249507402003717</v>
       </c>
       <c r="J3">
-        <v>0.005384415753505335</v>
+        <v>0.009249507402003719</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N3">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P3">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q3">
-        <v>0.02474492658333333</v>
+        <v>1.100353979167111</v>
       </c>
       <c r="R3">
-        <v>0.22270433925</v>
+        <v>9.903185812504002</v>
       </c>
       <c r="S3">
-        <v>0.0002685577875731658</v>
+        <v>0.007503200394143766</v>
       </c>
       <c r="T3">
-        <v>0.0002685577875731657</v>
+        <v>0.007503200394143768</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>97.08941133333333</v>
+      </c>
+      <c r="H4">
+        <v>291.268234</v>
+      </c>
+      <c r="I4">
+        <v>0.6303829267608616</v>
+      </c>
+      <c r="J4">
+        <v>0.6303829267608616</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.6849806666666666</v>
-      </c>
-      <c r="H4">
-        <v>2.054942</v>
-      </c>
-      <c r="I4">
-        <v>0.005384415753505336</v>
-      </c>
-      <c r="J4">
-        <v>0.005384415753505335</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.6155076666666667</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N4">
-        <v>1.846523</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O4">
-        <v>0.8498157489860096</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P4">
-        <v>0.8498157489860095</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q4">
-        <v>0.4216108518517777</v>
+        <v>17.45389292794178</v>
       </c>
       <c r="R4">
-        <v>3.794497666665999</v>
+        <v>157.085036351476</v>
       </c>
       <c r="S4">
-        <v>0.004575761306417207</v>
+        <v>0.1190162972786296</v>
       </c>
       <c r="T4">
-        <v>0.004575761306417205</v>
+        <v>0.1190162972786296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>291.268234</v>
       </c>
       <c r="I5">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="J5">
-        <v>0.7631890669640694</v>
+        <v>0.6303829267608616</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07265100000000001</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N5">
-        <v>0.217953</v>
+        <v>2.317222</v>
       </c>
       <c r="O5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P5">
-        <v>0.1003073841694622</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q5">
-        <v>7.053642822778</v>
+        <v>74.99257330288312</v>
       </c>
       <c r="R5">
-        <v>63.48278540500201</v>
+        <v>674.933159725948</v>
       </c>
       <c r="S5">
-        <v>0.07655349893389829</v>
+        <v>0.511366629482232</v>
       </c>
       <c r="T5">
-        <v>0.07655349893389829</v>
+        <v>0.511366629482232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.08941133333333</v>
+        <v>31.31606233333333</v>
       </c>
       <c r="H6">
-        <v>291.268234</v>
+        <v>93.94818699999999</v>
       </c>
       <c r="I6">
-        <v>0.7631890669640694</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="J6">
-        <v>0.7631890669640694</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.036125</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N6">
-        <v>0.108375</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P6">
-        <v>0.04987686684452822</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q6">
-        <v>3.507354984416666</v>
+        <v>5.629730280413112</v>
       </c>
       <c r="R6">
-        <v>31.56619485975</v>
+        <v>50.667572523718</v>
       </c>
       <c r="S6">
-        <v>0.03806547947016663</v>
+        <v>0.03838855064703101</v>
       </c>
       <c r="T6">
-        <v>0.03806547947016663</v>
+        <v>0.03838855064703101</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.08941133333333</v>
+        <v>31.31606233333333</v>
       </c>
       <c r="H7">
-        <v>291.268234</v>
+        <v>93.94818699999999</v>
       </c>
       <c r="I7">
-        <v>0.7631890669640694</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="J7">
-        <v>0.7631890669640694</v>
+        <v>0.2033291865426586</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6155076666666667</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N7">
-        <v>1.846523</v>
+        <v>2.317222</v>
       </c>
       <c r="O7">
-        <v>0.8498157489860096</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P7">
-        <v>0.8498157489860095</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q7">
-        <v>59.75927702782022</v>
+        <v>24.18875619739044</v>
       </c>
       <c r="R7">
-        <v>537.8334932503819</v>
+        <v>217.698805776514</v>
       </c>
       <c r="S7">
-        <v>0.6485700885600045</v>
+        <v>0.1649406358956275</v>
       </c>
       <c r="T7">
-        <v>0.6485700885600044</v>
+        <v>0.1649406358956275</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.43813466666667</v>
+        <v>24.18651133333333</v>
       </c>
       <c r="H8">
-        <v>31.314404</v>
+        <v>72.559534</v>
       </c>
       <c r="I8">
-        <v>0.0820508657710196</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="J8">
-        <v>0.08205086577101958</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07265100000000001</v>
+        <v>0.1797713333333334</v>
       </c>
       <c r="N8">
-        <v>0.217953</v>
+        <v>0.5393140000000001</v>
       </c>
       <c r="O8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="P8">
-        <v>0.1003073841694622</v>
+        <v>0.188800001120238</v>
       </c>
       <c r="Q8">
-        <v>0.758340921668</v>
+        <v>4.348041391075111</v>
       </c>
       <c r="R8">
-        <v>6.825068295012001</v>
+        <v>39.132372519676</v>
       </c>
       <c r="S8">
-        <v>0.008230307714330636</v>
+        <v>0.02964884618671745</v>
       </c>
       <c r="T8">
-        <v>0.008230307714330634</v>
+        <v>0.02964884618671746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,294 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.43813466666667</v>
+        <v>24.18651133333333</v>
       </c>
       <c r="H9">
-        <v>31.314404</v>
+        <v>72.559534</v>
       </c>
       <c r="I9">
-        <v>0.0820508657710196</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="J9">
-        <v>0.08205086577101958</v>
+        <v>0.1570383792944762</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.036125</v>
+        <v>0.7724073333333333</v>
       </c>
       <c r="N9">
-        <v>0.108375</v>
+        <v>2.317222</v>
       </c>
       <c r="O9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="P9">
-        <v>0.04987686684452822</v>
+        <v>0.811199998879762</v>
       </c>
       <c r="Q9">
-        <v>0.3770776148333333</v>
+        <v>18.68183872161644</v>
       </c>
       <c r="R9">
-        <v>3.3936985335</v>
+        <v>168.136548494548</v>
       </c>
       <c r="S9">
-        <v>0.004092440106539403</v>
+        <v>0.1273895331077587</v>
       </c>
       <c r="T9">
-        <v>0.004092440106539402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>10.43813466666667</v>
-      </c>
-      <c r="H10">
-        <v>31.314404</v>
-      </c>
-      <c r="I10">
-        <v>0.0820508657710196</v>
-      </c>
-      <c r="J10">
-        <v>0.08205086577101958</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N10">
-        <v>1.846523</v>
-      </c>
-      <c r="O10">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P10">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q10">
-        <v>6.424751913032445</v>
-      </c>
-      <c r="R10">
-        <v>57.822767217292</v>
-      </c>
-      <c r="S10">
-        <v>0.06972811795014956</v>
-      </c>
-      <c r="T10">
-        <v>0.06972811795014953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>19.002885</v>
-      </c>
-      <c r="H11">
-        <v>57.008655</v>
-      </c>
-      <c r="I11">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="J11">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.07265100000000001</v>
-      </c>
-      <c r="N11">
-        <v>0.217953</v>
-      </c>
-      <c r="O11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="P11">
-        <v>0.1003073841694622</v>
-      </c>
-      <c r="Q11">
-        <v>1.380578598135</v>
-      </c>
-      <c r="R11">
-        <v>12.425207383215</v>
-      </c>
-      <c r="S11">
-        <v>0.01498348086171826</v>
-      </c>
-      <c r="T11">
-        <v>0.01498348086171826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>19.002885</v>
-      </c>
-      <c r="H12">
-        <v>57.008655</v>
-      </c>
-      <c r="I12">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="J12">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.036125</v>
-      </c>
-      <c r="N12">
-        <v>0.108375</v>
-      </c>
-      <c r="O12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="P12">
-        <v>0.04987686684452822</v>
-      </c>
-      <c r="Q12">
-        <v>0.686479220625</v>
-      </c>
-      <c r="R12">
-        <v>6.178312985625</v>
-      </c>
-      <c r="S12">
-        <v>0.007450389480249029</v>
-      </c>
-      <c r="T12">
-        <v>0.007450389480249027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>19.002885</v>
-      </c>
-      <c r="H13">
-        <v>57.008655</v>
-      </c>
-      <c r="I13">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="J13">
-        <v>0.1493756515114056</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6155076666666667</v>
-      </c>
-      <c r="N13">
-        <v>1.846523</v>
-      </c>
-      <c r="O13">
-        <v>0.8498157489860096</v>
-      </c>
-      <c r="P13">
-        <v>0.8498157489860095</v>
-      </c>
-      <c r="Q13">
-        <v>11.696421406285</v>
-      </c>
-      <c r="R13">
-        <v>105.267792656565</v>
-      </c>
-      <c r="S13">
-        <v>0.1269417811694383</v>
-      </c>
-      <c r="T13">
-        <v>0.1269417811694383</v>
+        <v>0.1273895331077587</v>
       </c>
     </row>
   </sheetData>
